--- a/Code/GEMs/bphC.xlsx
+++ b/Code/GEMs/bphC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Dokument\MATLAB\iGEM\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="11_96A056F103DEB8C4A7D919C9F1B7E265480CEA40" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{EBFA3712-8757-4065-A6C9-628ECCB686AE}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="11_96A056F103DEB8C4A7D919C9F1B7E265480CEA40" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E338D0A-558B-4A1C-8964-6B34D276DCF4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,8 +637,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -714,7 +714,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K2" s="5">
         <v>1000</v>
@@ -746,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K3" s="5">
         <v>1000</v>
@@ -778,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K4" s="5">
         <v>1000</v>
@@ -810,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K5" s="5">
         <v>1000</v>
@@ -842,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K6" s="5">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K7" s="5">
         <v>1000</v>
@@ -906,7 +906,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K8" s="5">
         <v>1000</v>
@@ -938,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K9" s="5">
         <v>1000</v>
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K10" s="5">
         <v>1000</v>
@@ -1002,7 +1002,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K11" s="5">
         <v>1000</v>
@@ -1034,7 +1034,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K12" s="5">
         <v>1000</v>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K13" s="5">
         <v>1000</v>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K14" s="5">
         <v>1000</v>
@@ -1130,7 +1130,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K15" s="5">
         <v>1000</v>
@@ -1162,7 +1162,7 @@
         <v>8</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K16" s="5">
         <v>1000</v>
@@ -1194,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K17" s="5">
         <v>1000</v>
@@ -1226,7 +1226,7 @@
         <v>8</v>
       </c>
       <c r="J18" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K18" s="5">
         <v>1000</v>
@@ -1258,7 +1258,7 @@
         <v>8</v>
       </c>
       <c r="J19" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K19" s="5">
         <v>1000</v>
@@ -1290,7 +1290,7 @@
         <v>8</v>
       </c>
       <c r="J20" s="2">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="K20" s="5">
         <v>1000</v>
